--- a/RobotTraceStopwatch/パーツリスト/発注リスト_IE3A18藤村伊織.xlsx
+++ b/RobotTraceStopwatch/パーツリスト/発注リスト_IE3A18藤村伊織.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D51E629-3142-4085-92D0-2014F13F5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67823636-868D-44D6-A51B-34C0FF48A6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,16 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>村上先生</t>
-    <rPh sb="0" eb="2">
-      <t>ムラカミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ESP-32</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,6 +207,13 @@
   </si>
   <si>
     <t>ＴＢＤ６２０８３ＡＰＧ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先生</t>
+    <rPh sb="0" eb="2">
+      <t>センセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -883,7 +880,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,7 +928,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -989,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -1011,18 +1008,18 @@
         <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -1035,18 +1032,18 @@
         <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
@@ -1059,18 +1056,18 @@
         <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1083,10 +1080,10 @@
         <v>100</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -1199,7 +1196,7 @@
     </row>
     <row r="19" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16">
@@ -1624,6 +1621,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003D021C0960C95E4FA27DC72D6C14D538" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="32a118113aa98a0769856a949a9bb5da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="86bdb69b-768d-403a-b521-225e3c9cb4e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c4761500d0e7213840918bd64dac647" ns2:_="">
     <xsd:import namespace="86bdb69b-768d-403a-b521-225e3c9cb4e7"/>
@@ -1793,22 +1805,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357E5910-9E62-486B-935D-D245710A5AF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56206D5E-92B1-4C2A-A340-14B12BB4647F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C41F446F-BC52-4D28-B2AB-E9CB065C012A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1824,21 +1838,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56206D5E-92B1-4C2A-A340-14B12BB4647F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357E5910-9E62-486B-935D-D245710A5AF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>